--- a/Outiles/Exemple.xlsx
+++ b/Outiles/Exemple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\code\python\projet\Gestion-de-Tableau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\code\GitHub\Jeu-Dzarian-Miniquoinquoin\Outiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11D5BAB-94FE-412B-9C24-3BBE415780C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01D1D94-6CC8-46B8-AE05-33D4FF47B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57120" yWindow="3780" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>name_wave_0</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Wave</t>
+  </si>
+  <si>
+    <t>Ammonite_Sprite</t>
+  </si>
+  <si>
+    <t>SHOOTER</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1070,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
@@ -1208,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="R2" s="6">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>18</v>
@@ -1242,9 +1251,15 @@
       <c r="G3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1310,17 +1325,35 @@
       <c r="N4" s="3"/>
       <c r="O4" s="7"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="11"/>
+      <c r="Q4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="7">
+        <v>20</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="7">
+        <v>100</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="7"/>
       <c r="G5" s="11"/>
